--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -1355,7 +1355,11 @@
           <t>Sonia</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -536,24 +536,64 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -563,24 +603,64 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -602,8 +682,16 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1691,7 +1779,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -2155,7 +2243,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Until 10:30</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
@@ -2393,7 +2481,11 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -634,7 +634,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Bag 13</t>
+          <t>Bag 5</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1549,7 +1549,11 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -1603,10 +1607,14 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>3rd Day, work w/ Leyna</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
@@ -1658,7 +1666,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1709,7 +1717,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1757,8 +1765,16 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -1846,17 +1862,13 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>METRO #890 +RX, MEQUON</t>
+          <t>METRO #890, MEQUON (NO RX COUNT PER KROGER)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -1905,7 +1917,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1952,7 +1964,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>ROETTGERS HIGHWAY 45 ARC, MILWAUKEE</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2007,7 +2019,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>5501 N LOVERS LANE</t>
+          <t>ROETTGERS HIGHWAY 45 ARC, MILWAUKEE</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2058,7 +2070,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/7F5cQ4UvGnWBLWHe9</t>
+          <t>5501 N LOVERS LANE</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2122,7 +2134,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://maps.app.goo.gl/7F5cQ4UvGnWBLWHe9</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2181,7 +2193,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2250,7 +2262,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>ROETTGERS TOSA ARC</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2309,7 +2321,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>8806 W NORTH AVE</t>
+          <t>ROETTGERS TOSA ARC</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2372,7 +2384,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
+          <t>8806 W NORTH AVE</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2430,14 +2442,14 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
@@ -2483,25 +2495,13 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
@@ -2513,7 +2513,11 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2537,22 +2541,30 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2nd Day, work w/ Leyna</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
@@ -2561,10 +2573,14 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>4th Day, work w/ Leyna</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2604,19 +2620,19 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2628,7 +2644,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2672,13 +2688,21 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
@@ -2688,7 +2712,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2727,7 +2751,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2743,7 +2767,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2774,21 +2798,13 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
@@ -2798,14 +2814,10 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2833,7 +2845,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -2845,7 +2857,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2857,7 +2869,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -2896,7 +2908,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -2908,14 +2920,26 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>ASCENSION ELMBROOK HOSPITAL RX #1104</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2943,7 +2967,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2955,7 +2979,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>19333 W NORTH AVE  SUITE 390</t>
+          <t>ASCENSION ELMBROOK HOSPITAL RX #1104</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2991,24 +3015,32 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HnZswssC8QL2</t>
+          <t>19333 W NORTH AVE  SUITE 390</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3045,7 +3077,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/HnZswssC8QL2</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3053,7 +3085,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3087,17 +3119,13 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3105,7 +3133,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3136,7 +3164,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY - BUYER DHILLON'S</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3144,7 +3172,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>ASCENSION ST JOSEPH-MAYFAIR RX #1106, TOSA</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3152,7 +3180,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>450 N MARGARET ST</t>
+          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3188,7 +3216,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*SALE INVENTORY - BUYER DHILLON'S</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3196,7 +3224,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>201 N MAYFAIR RD</t>
+          <t>ASCENSION ST JOSEPH-MAYFAIR RX #1106, TOSA</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3204,7 +3232,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+          <t>450 N MARGARET ST</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3227,7 +3255,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3235,13 +3263,17 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/efsuGG591Ms</t>
+          <t>201 N MAYFAIR RD</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3262,7 +3294,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3270,26 +3302,14 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/efsuGG591Ms</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3309,7 +3329,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3317,24 +3337,24 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>meet Madison @ Point Target</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3354,30 +3374,34 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>ASCENSION AMG RAWSON AVE RX #1116, FRANKLIN</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>meet Madison @ Point Target</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3396,43 +3420,31 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>7400 W RAWSON AVE, SUITE 140</t>
+          <t>ASCENSION AMG RAWSON AVE RX #1116, FRANKLIN</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3453,42 +3465,41 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JDSt1uteEWoVQ3wg8</t>
+          <t>7400 W RAWSON AVE, SUITE 140</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>Driver (pick up Dan *
-&amp; Trevor)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -3509,12 +3520,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3524,22 +3535,27 @@
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JDSt1uteEWoVQ3wg8</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>meet Madison @ Point Target</t>
+          <t>Driver (pick up Dan *
+&amp; Trevor)</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3558,29 +3574,41 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>meet Madison @ Point Target</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3603,15 +3631,19 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3633,21 +3665,17 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>5:00 OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3674,13 +3702,21 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 OFFICE MEET</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3705,7 +3741,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3736,7 +3772,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3767,7 +3803,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3798,7 +3834,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3829,7 +3865,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3858,7 +3894,11 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -3884,21 +3924,9 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -3925,18 +3953,17 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -3965,15 +3992,20 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -3985,6 +4017,41 @@
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1546,14 +1546,10 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -1607,14 +1603,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>3rd Day, work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
@@ -1664,11 +1656,7 @@
           <t>10)</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
@@ -1715,11 +1703,7 @@
           <t>11)</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -1770,11 +1754,7 @@
           <t>12)</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -3192,22 +3172,9 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3809,7 +3776,11 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>?? AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -3840,7 +3811,11 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -3871,7 +3846,11 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -3902,7 +3881,11 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #168, EDGERTON</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -3929,7 +3912,11 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>1211 N MAIN ST</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -3968,7 +3955,11 @@
       </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9YbLUf3aGUH2</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
@@ -4042,9 +4033,21 @@
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
@@ -4052,6 +4055,272 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -2254,10 +2254,14 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2313,12 +2317,12 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2376,14 +2380,10 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2439,10 +2439,14 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2490,12 +2494,12 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>3rd Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2553,14 +2557,10 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>4th Day, work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2747,10 +2747,14 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2794,10 +2798,14 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2842,21 +2850,9 @@
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2905,21 +2901,9 @@
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2965,7 +2949,11 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3020,7 +3008,11 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3065,7 +3057,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3113,7 +3105,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>450 N MARGARET ST</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3160,7 +3152,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
+          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3197,11 +3189,7 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>450 N MARGARET ST</t>
-        </is>
-      </c>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3235,13 +3223,21 @@
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3274,9 +3270,21 @@
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>meet Madison @ Point Target</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3311,17 +3319,17 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3358,17 +3366,17 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>meet Madison @ Point Target</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3401,17 +3409,18 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Driver (pick up Dan *
+&amp; Trevor)</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3456,17 +3465,17 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>meet Madison @ Point Target</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -3509,22 +3518,9 @@
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Driver (pick up Dan *
-&amp; Trevor)</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3561,21 +3557,9 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>meet Madison @ Point Target</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3613,7 +3597,11 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>4:30 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -3648,7 +3636,11 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
@@ -3687,7 +3679,11 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -3718,7 +3714,11 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>SULLIVAN'S FOODS #295, WINNEBAGO</t>
+        </is>
+      </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
@@ -3749,7 +3749,11 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>703 N ELIDA STREET</t>
+        </is>
+      </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
@@ -3778,13 +3782,17 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>?? AM OFFICE MEET</t>
+          <t>5:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+        </is>
+      </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
@@ -3819,7 +3827,11 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>GROCERY SIDE ONLY</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
@@ -3888,9 +3900,21 @@
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
@@ -3919,9 +3943,22 @@
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -3962,8 +3999,16 @@
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -4002,9 +4047,21 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -4049,9 +4106,21 @@
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
@@ -4089,9 +4158,21 @@
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
@@ -4124,9 +4205,21 @@
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
@@ -4159,9 +4252,21 @@
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,12 +574,12 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DJ </t>
+          <t xml:space="preserve">Kim </t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Bags 1-3</t>
+          <t>Bag 12</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
@@ -641,12 +641,12 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim </t>
+          <t xml:space="preserve">Katherine </t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Bag 12</t>
+          <t>Bag 13</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -682,16 +682,8 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Bag 13</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -758,7 +750,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -805,7 +797,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -852,7 +844,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>METRO #876, GLENDALE - GREEN TREE</t>
+          <t>ROETTGERS HIGHWAY 45 ARC, MILWAUKEE</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -899,7 +891,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>6969 N PORT WASHINGTON RD</t>
+          <t>5501 N LOVERS LANE</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -946,7 +938,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ho2n746veYC2</t>
+          <t>https://maps.app.goo.gl/7F5cQ4UvGnWBLWHe9</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -993,7 +985,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -1034,7 +1026,11 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1085,21 +1081,13 @@
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>ROETTGERS TOSA ARC</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1136,14 +1124,10 @@
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>8806 W NORTH AVE</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1207,14 +1191,10 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1270,16 +1250,8 @@
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Celina</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
@@ -1345,15 +1317,19 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1404,12 +1380,12 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1485,12 +1461,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1539,16 +1515,8 @@
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
@@ -1596,16 +1564,8 @@
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
@@ -1651,12 +1611,12 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
@@ -1698,12 +1658,12 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>SCAN-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -1749,12 +1709,12 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>ASCENSION ELMBROOK HOSPITAL RX #1104</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -1801,7 +1761,11 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>19333 W NORTH AVE  SUITE 390</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
@@ -1848,7 +1812,11 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HnZswssC8QL2</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -1897,7 +1865,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1944,7 +1912,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -1999,7 +1967,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>ROETTGERS HIGHWAY 45 ARC, MILWAUKEE</t>
+          <t>ASCENSION ST JOSEPH-MAYFAIR RX #1106, TOSA</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2050,7 +2018,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>5501 N LOVERS LANE</t>
+          <t>201 N MAYFAIR RD</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2114,7 +2082,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/7F5cQ4UvGnWBLWHe9</t>
+          <t>https://goo.gl/maps/efsuGG591Ms</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2173,7 +2141,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2242,7 +2210,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2305,7 +2273,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>ROETTGERS TOSA ARC</t>
+          <t>ASCENSION AMG RAWSON AVE RX #1116, FRANKLIN</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2368,7 +2336,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>8806 W NORTH AVE</t>
+          <t>7400 W RAWSON AVE, SUITE 140</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2427,7 +2395,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
+          <t>https://goo.gl/maps/JDSt1uteEWoVQ3wg8</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2541,12 +2509,12 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Santa Fe available, Equip</t>
+          <t>Optima available, Equip</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -2612,7 +2580,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2680,7 +2648,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2845,7 +2813,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2896,7 +2864,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2943,7 +2911,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>ASCENSION ELMBROOK HOSPITAL RX #1104</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3002,7 +2970,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>19333 W NORTH AVE  SUITE 390</t>
+          <t>PIGGLY WIGGLY #168, EDGERTON</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3049,7 +3017,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HnZswssC8QL2</t>
+          <t>1211 N MAIN ST</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3097,7 +3065,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/9YbLUf3aGUH2</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3142,11 +3110,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>SCAN-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3180,13 +3144,21 @@
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>ASCENSION ST JOSEPH-MAYFAIR RX #1106, TOSA</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3215,13 +3187,22 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>201 N MAYFAIR RD</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
@@ -3262,10 +3243,14 @@
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/efsuGG591Ms</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3309,10 +3294,14 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3356,13 +3345,21 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
@@ -3399,13 +3396,21 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>ASCENSION AMG RAWSON AVE RX #1116, FRANKLIN</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
@@ -3455,13 +3460,21 @@
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>7400 W RAWSON AVE, SUITE 140</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
@@ -3510,13 +3523,21 @@
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JDSt1uteEWoVQ3wg8</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3580,21 +3601,9 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
@@ -3623,16 +3632,8 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3666,16 +3667,8 @@
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3780,11 +3773,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>5:45 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -3819,11 +3808,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -3858,11 +3843,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -3893,11 +3874,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #168, EDGERTON</t>
-        </is>
-      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
@@ -3936,11 +3913,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>1211 N MAIN ST</t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
@@ -3992,11 +3965,7 @@
       </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/9YbLUf3aGUH2</t>
-        </is>
-      </c>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
@@ -4090,21 +4059,9 @@
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
@@ -4141,22 +4098,9 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
@@ -4193,16 +4137,8 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
@@ -4240,16 +4176,8 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
@@ -4269,162 +4197,6 @@
       </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -2253,7 +2253,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -2390,7 +2390,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Bring Red Van (stools)</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -2636,7 +2640,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2699,7 +2703,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2750,7 +2754,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2801,14 +2805,10 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3010,9 +3010,21 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
@@ -3102,11 +3114,7 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3139,7 +3147,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY - BUYER DHILLON'S</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3182,7 +3190,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*SALE INVENTORY - BUYER DHILLON'S</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3238,7 +3246,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3289,7 +3297,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3340,7 +3348,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3393,7 +3401,11 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
@@ -3444,21 +3456,9 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
@@ -3509,17 +3509,17 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
@@ -3560,12 +3560,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3597,9 +3597,21 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3660,11 +3672,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>5:00 OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3697,7 +3705,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 OFFICE MEET</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3732,7 +3740,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3767,7 +3775,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3802,7 +3810,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3837,7 +3845,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3868,7 +3876,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3909,7 +3917,11 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -3948,21 +3960,9 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -3997,18 +3997,17 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -4049,15 +4048,20 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -3565,7 +3565,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3597,21 +3597,9 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3672,7 +3660,11 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>5:00 OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3705,7 +3697,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>5:00 OFFICE MEET</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3740,7 +3732,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3775,7 +3767,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3810,7 +3802,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3845,7 +3837,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3876,7 +3868,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3917,11 +3909,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -3960,9 +3948,21 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -3997,17 +3997,18 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -4046,22 +4047,9 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -2958,7 +2958,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3070,9 +3070,21 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
@@ -3145,11 +3157,7 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
@@ -3190,7 +3198,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY - BUYER DHILLON'S</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3246,7 +3254,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*SALE INVENTORY - BUYER DHILLON'S</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3297,7 +3305,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3348,7 +3356,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3403,7 +3411,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3457,7 +3465,11 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
@@ -3507,21 +3519,9 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3560,17 +3560,17 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
@@ -3597,9 +3597,21 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3660,11 +3672,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>5:00 OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3697,7 +3705,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 OFFICE MEET</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3732,7 +3740,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3767,7 +3775,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3802,7 +3810,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3837,7 +3845,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3868,7 +3876,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3909,7 +3917,11 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -3948,21 +3960,9 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -3997,18 +3997,17 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -4047,9 +4046,22 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2328,10 +2328,14 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Bring Red Van (stools)</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -2387,12 +2391,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Bring Red Van (stools)</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -2446,12 +2450,12 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>2nd Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
@@ -2497,14 +2501,10 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>2nd Day, work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2664,10 +2664,14 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2703,7 +2707,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2719,7 +2723,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2754,30 +2758,22 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2805,10 +2801,14 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -2870,7 +2870,11 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2899,7 +2903,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2919,7 +2923,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2958,7 +2962,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -2978,7 +2982,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3010,21 +3014,9 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
@@ -3037,7 +3029,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
+          <t>450 N MARGARET ST</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3070,21 +3062,9 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
@@ -3097,7 +3077,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>450 N MARGARET ST</t>
+          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3126,7 +3106,11 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3134,11 +3118,7 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
-        </is>
-      </c>
+      <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3157,7 +3137,11 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>*SALE INVENTORY - BUYER DHILLON'S</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
@@ -3176,9 +3160,21 @@
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3198,7 +3194,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3210,7 +3206,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3222,17 +3218,17 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>meet Madison @ Point Target</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3254,7 +3250,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY - BUYER DHILLON'S</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3273,17 +3269,17 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>meet Madison @ Point Target</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3305,7 +3301,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3324,17 +3320,17 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3356,7 +3352,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3379,17 +3375,18 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver (pick up Dan *
+&amp; Trevor)</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3409,11 +3406,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>890 FOND DU LAC AVE</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
@@ -3434,18 +3427,17 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Driver (pick up Dan *
-&amp; Trevor)</t>
+          <t>meet Madison @ Point Target</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3464,13 +3456,21 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
@@ -3488,21 +3488,9 @@
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>meet Madison @ Point Target</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3519,9 +3507,21 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3558,28 +3558,20 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>4:30 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -3597,21 +3589,9 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3620,7 +3600,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>4:30 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3641,7 +3621,11 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>5:00 OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3651,7 +3635,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3672,7 +3656,11 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3682,7 +3670,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SULLIVAN'S FOODS #295, WINNEBAGO</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -3705,7 +3693,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>5:00 OFFICE MEET</t>
+          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3717,7 +3705,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #295, WINNEBAGO</t>
+          <t>703 N ELIDA STREET</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3740,7 +3728,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3752,7 +3740,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>703 N ELIDA STREET</t>
+          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3775,7 +3763,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3787,7 +3775,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+          <t>GROCERY SIDE ONLY</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -3810,7 +3798,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3820,11 +3808,7 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>GROCERY SIDE ONLY</t>
-        </is>
-      </c>
+      <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
@@ -3845,7 +3829,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3854,9 +3838,21 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
@@ -3874,11 +3870,7 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>259 N FOND DU LAC AVE</t>
-        </is>
-      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -3887,17 +3879,18 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
@@ -3916,13 +3909,21 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -3930,20 +3931,15 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -3960,9 +3956,22 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -3970,15 +3979,19 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -3995,21 +4008,9 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4017,12 +4018,12 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -4046,22 +4047,9 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -4069,12 +4057,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -4108,12 +4096,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -4147,12 +4135,12 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -4162,45 +4150,6 @@
       </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -2265,10 +2265,14 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Bring Red Van (stools)</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -2328,12 +2332,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Bring Red Van (stools)</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
@@ -2391,12 +2395,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>2nd Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -2450,14 +2454,10 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>2nd Day, work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2707,10 +2707,14 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -2758,7 +2762,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2801,7 +2805,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -2852,7 +2856,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -2903,7 +2907,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2955,21 +2959,9 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
@@ -3063,7 +3055,11 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3108,7 +3104,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>*SALE INVENTORY - BUYER DHILLON'S</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3139,7 +3135,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY - BUYER DHILLON'S</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3194,7 +3190,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3250,7 +3246,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3301,7 +3297,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3350,11 +3346,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
@@ -3405,9 +3397,21 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
@@ -3458,17 +3462,17 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -3507,21 +3511,9 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3590,7 +3582,11 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>5:00 OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -3623,7 +3619,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>5:00 OFFICE MEET</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3658,7 +3654,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3693,7 +3689,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">*SALE INVENTORY - BUYER DHILLON'S </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3728,7 +3724,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3763,7 +3759,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3798,7 +3794,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3827,11 +3823,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -3869,9 +3861,21 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -3911,17 +3915,18 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -3956,22 +3961,9 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1979,10 +1979,14 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr"/>
+          <t>Anamaria</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>1st Day</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2030,7 +2034,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2094,7 +2098,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2153,7 +2157,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2222,14 +2226,10 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2289,12 +2289,12 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2356,10 +2356,14 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2419,14 +2423,10 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2470,12 +2470,12 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>3rd Day, work w/ Leyna</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2529,10 +2529,14 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>3rd Day, work w/ Leyna</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2596,7 +2600,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2664,14 +2668,10 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2775,9 +2775,21 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2874,11 +2886,7 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2927,7 +2935,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2974,7 +2982,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3021,7 +3029,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>450 N MARGARET ST</t>
+          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3073,7 +3081,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+          <t>450 N MARGARET ST</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3114,7 +3122,11 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3156,21 +3168,9 @@
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3214,17 +3214,17 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>meet Madison @ Point Target</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>meet Madison @ Point Target</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3316,17 +3316,17 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3367,18 +3367,17 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>Driver (pick up Dan *
-&amp; Trevor)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3431,17 +3430,18 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>meet Madison @ Point Target</t>
+          <t>Driver (pick up Dan *
+&amp; Trevor)</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3492,9 +3492,21 @@
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>meet Madison @ Point Target</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3559,11 +3571,7 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -3596,7 +3604,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3631,7 +3639,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3666,7 +3674,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #295, WINNEBAGO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -3701,7 +3709,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>703 N ELIDA STREET</t>
+          <t>SULLIVAN'S FOODS #295, WINNEBAGO</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3736,7 +3744,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+          <t>703 N ELIDA STREET</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3771,7 +3779,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>GROCERY SIDE ONLY</t>
+          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -3804,7 +3812,11 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>GROCERY SIDE ONLY</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
@@ -3830,21 +3842,9 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
@@ -3883,18 +3883,17 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>Driver,
-Wht Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
@@ -3936,15 +3935,20 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -3971,19 +3975,15 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -4010,12 +4010,12 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -4049,12 +4049,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -4088,12 +4088,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -4127,12 +4127,12 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -4142,6 +4142,45 @@
       </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -742,7 +742,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
+          <t xml:space="preserve">6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -789,7 +789,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -1902,11 +1902,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/1RSSzAVZ6Qq</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -1902,7 +1902,11 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/1RSSzAVZ6Qq</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -2834,9 +2834,21 @@
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2933,11 +2945,7 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2982,7 +2990,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3029,7 +3037,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3081,7 +3089,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>450 N MARGARET ST</t>
+          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3124,7 +3132,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+          <t>450 N MARGARET ST</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3169,7 +3177,11 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3212,21 +3224,9 @@
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3265,17 +3265,17 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>meet Madison @ Point Target</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3316,17 +3316,17 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>meet Madison @ Point Target</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3367,17 +3367,17 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3430,18 +3430,17 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Driver (pick up Dan *
-&amp; Trevor)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3494,17 +3493,18 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>meet Madison @ Point Target</t>
+          <t>Driver (pick up Dan *
+&amp; Trevor)</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -3543,9 +3543,21 @@
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>meet Madison @ Point Target</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3602,11 +3614,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -3639,7 +3647,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3674,7 +3682,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -3709,7 +3717,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #295, WINNEBAGO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3744,7 +3752,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>703 N ELIDA STREET</t>
+          <t>SULLIVAN'S FOODS #295, WINNEBAGO</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3779,7 +3787,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+          <t>703 N ELIDA STREET</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -3814,7 +3822,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>GROCERY SIDE ONLY</t>
+          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -3843,7 +3851,11 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>GROCERY SIDE ONLY</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -3881,21 +3893,9 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
@@ -3935,18 +3935,17 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Driver,
-Wht Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
@@ -3975,15 +3974,20 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -4010,19 +4014,15 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -4049,12 +4049,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -4088,12 +4088,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -4127,12 +4127,12 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -4166,12 +4166,12 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
@@ -4181,6 +4181,45 @@
       </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
